--- a/output/teste-valores-balver-msc.xlsx
+++ b/output/teste-valores-balver-msc.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,40 +457,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
-        <v>111113000</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>166399.15</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>166399.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>123910103</v>
-      </c>
-      <c r="B3">
-        <v>203.83</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>203.83</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/teste-valores-balver-msc.xlsx
+++ b/output/teste-valores-balver-msc.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,6 +457,5124 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>111111900</v>
+      </c>
+      <c r="B2">
+        <v>1166635.25</v>
+      </c>
+      <c r="C2">
+        <v>1380575.41</v>
+      </c>
+      <c r="F2">
+        <v>4371736.07</v>
+      </c>
+      <c r="G2">
+        <v>5316053.65</v>
+      </c>
+      <c r="H2">
+        <v>4345966.28</v>
+      </c>
+      <c r="I2">
+        <v>5278490.92</v>
+      </c>
+      <c r="J2">
+        <v>1192405.04</v>
+      </c>
+      <c r="K2">
+        <v>1418138.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>111111902</v>
+      </c>
+      <c r="B3">
+        <v>66077.03</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>45910.62</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>34672.36</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>77315.28999999999</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>111111912</v>
+      </c>
+      <c r="B4">
+        <v>135588.73</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4088.82</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>7349.46</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>132328.09</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>111111999</v>
+      </c>
+      <c r="B5">
+        <v>12274.4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>894318.14</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>890502.8199999999</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>16089.72</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>111115000</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>8745420.67</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>713288.4</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1176006.65</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>8282702.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>111115001</v>
+      </c>
+      <c r="B7">
+        <v>8745420.67</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>713288.4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1176006.65</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>8282702.42</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>111115200</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>16363.23</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>10130.92</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1511.62</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>24982.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>111115201</v>
+      </c>
+      <c r="B9">
+        <v>16363.23</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10130.92</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1511.62</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>24982.53</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
+        <v>112410201</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>134183.2</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>134183.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>112410210</v>
+      </c>
+      <c r="F11">
+        <v>134183.2</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>134183.2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
+        <v>112619900</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>633.8099999999999</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>933.55</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1070.56</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>496.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
+        <v>112619902</v>
+      </c>
+      <c r="B13">
+        <v>496.8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>496.8</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>112619903</v>
+      </c>
+      <c r="B14">
+        <v>137.01</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>933.55</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1070.56</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>113819900</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>75563.2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>65563.2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16">
+        <v>113819901</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10000</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>113819904</v>
+      </c>
+      <c r="B17">
+        <v>65563.2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>65563.2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>114419900</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4287433.41</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>33954</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>4321387.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>114419901</v>
+      </c>
+      <c r="B19">
+        <v>4287433.41</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>33954</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4321387.41</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>115610300</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>201222.98</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>82231.69</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>92775.28999999999</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>190679.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>115610301</v>
+      </c>
+      <c r="B21">
+        <v>6739.34</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>78542.72</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>73592.72</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>11689.34</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>115610302</v>
+      </c>
+      <c r="B22">
+        <v>124220.36</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>12694.69</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>111525.67</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>115610304</v>
+      </c>
+      <c r="B23">
+        <v>53492.36</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>237.15</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>53255.21</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>115610305</v>
+      </c>
+      <c r="B24">
+        <v>1401.71</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2171.97</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>2917.35</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>656.33</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>115610306</v>
+      </c>
+      <c r="B25">
+        <v>15369.21</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1517</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>3333.38</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>13552.83</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>115610400</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>622502.15</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>118979.93</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>71495.38</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>669986.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>115610401</v>
+      </c>
+      <c r="B27">
+        <v>523634.79</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>100773.83</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>47741.84</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>576666.78</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>115610402</v>
+      </c>
+      <c r="B28">
+        <v>89180.21000000001</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4960.74</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>8436.58</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>85704.37</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>115610403</v>
+      </c>
+      <c r="B29">
+        <v>9687.15</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>13245.36</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>15316.96</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>7615.55</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>115610500</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>227786.29</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>18593.49</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>36250.39</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>210129.39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>115610501</v>
+      </c>
+      <c r="B31">
+        <v>210971.8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>18593.49</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>33592.91</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>195972.38</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>115610502</v>
+      </c>
+      <c r="B32">
+        <v>16814.49</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>2657.48</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>14157.01</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>119110000</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>12066.23</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>2115.97</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2442.08</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>11740.12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>119110100</v>
+      </c>
+      <c r="B34">
+        <v>12066.23</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2115.97</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>2442.08</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>11740.12</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>119310000</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>2487.55</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>320</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>240.41</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>2567.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>119310100</v>
+      </c>
+      <c r="B36">
+        <v>2487.55</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>320</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>240.41</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>2567.14</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>121110500</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>23573.45</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>133.24</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>933.55</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>22773.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>121110531</v>
+      </c>
+      <c r="B38">
+        <v>23573.45</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>133.24</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>933.55</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>22773.14</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>123110140</v>
+      </c>
+      <c r="B39">
+        <v>48092.01</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>48092.01</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>123110199</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>48092.01</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>48092.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>213110150</v>
+      </c>
+      <c r="B41">
+        <v>26802.62</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>27067.88</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>26682.55</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>26417.29</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>213110199</v>
+      </c>
+      <c r="B42">
+        <v>6814.8</v>
+      </c>
+      <c r="C42">
+        <v>33617.42</v>
+      </c>
+      <c r="F42">
+        <v>145239.09</v>
+      </c>
+      <c r="G42">
+        <v>172306.97</v>
+      </c>
+      <c r="H42">
+        <v>145239.09</v>
+      </c>
+      <c r="I42">
+        <v>171921.64</v>
+      </c>
+      <c r="J42">
+        <v>6814.8</v>
+      </c>
+      <c r="K42">
+        <v>33232.09</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>218911400</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>43939.04</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>33849.56</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>28564.1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>38653.58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>218911401</v>
+      </c>
+      <c r="B44">
+        <v>43939.04</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>5285.46</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>38653.58</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>218911402</v>
+      </c>
+      <c r="F45">
+        <v>28564.1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>28564.1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>218919800</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>65563.2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>65563.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>218949903</v>
+      </c>
+      <c r="B47">
+        <v>65563.2</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>65563.2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>228910002</v>
+      </c>
+      <c r="B48">
+        <v>100000</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>100000</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>228919800</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>100000</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>329910000</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>138942.43</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>75259.89999999999</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>214202.33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>329910100</v>
+      </c>
+      <c r="B51">
+        <v>138942.43</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>75259.89999999999</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>214202.33</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>332319900</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>129289.33</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>141450.32</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>270739.65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>332319902</v>
+      </c>
+      <c r="B53">
+        <v>8197.120000000001</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>5798.42</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>13995.54</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>332319950</v>
+      </c>
+      <c r="B54">
+        <v>8433.049999999999</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>33716.17</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>42149.22</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>332319951</v>
+      </c>
+      <c r="B55">
+        <v>50324.1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>29729.77</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>80053.87</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>332319952</v>
+      </c>
+      <c r="F56">
+        <v>3400.08</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>3400.08</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>332319953</v>
+      </c>
+      <c r="B57">
+        <v>5520</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>5520</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>332319954</v>
+      </c>
+      <c r="B58">
+        <v>1396.9</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>8000</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>9396.9</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>332319955</v>
+      </c>
+      <c r="B59">
+        <v>6716.6</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>17494.76</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>24211.36</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>332319956</v>
+      </c>
+      <c r="B60">
+        <v>2702.56</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2702.56</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>332319957</v>
+      </c>
+      <c r="B61">
+        <v>44049</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>43311.12</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>87360.12</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>332319958</v>
+      </c>
+      <c r="B62">
+        <v>1950</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1950</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>351120200</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>83000</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>55000</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>351120201</v>
+      </c>
+      <c r="B64">
+        <v>83000</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>55000</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>138000</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>352130000</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>300.69</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>300.69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>352130500</v>
+      </c>
+      <c r="B66">
+        <v>300.69</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>300.69</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>352240000</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>1242402.92</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>405580.3</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>8688.450000000001</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1639294.77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>352240001</v>
+      </c>
+      <c r="B68">
+        <v>672286.72</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>208003.29</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>880290.01</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>352240002</v>
+      </c>
+      <c r="B69">
+        <v>5.65</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>4.47</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>10.12</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>352240004</v>
+      </c>
+      <c r="B70">
+        <v>508474.41</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>171061.62</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>679536.03</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>352240005</v>
+      </c>
+      <c r="B71">
+        <v>55321.93</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>24078.52</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>8175.84</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>71224.61</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>352240006</v>
+      </c>
+      <c r="B72">
+        <v>6314.21</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2432.4</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>512.61</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>8234</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>399130000</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>38000</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>399130100</v>
+      </c>
+      <c r="B74">
+        <v>38000</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>38000</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>399610000</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>1062.8</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1914.03</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2976.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>399610100</v>
+      </c>
+      <c r="B76">
+        <v>1062.8</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1914.03</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2976.83</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>399910000</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>3529.2</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>3529.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>399910109</v>
+      </c>
+      <c r="B78">
+        <v>3529.2</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>3529.2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>412110500</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>820</v>
+      </c>
+      <c r="H79">
+        <v>820</v>
+      </c>
+      <c r="I79">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>412110800</v>
+      </c>
+      <c r="F80">
+        <v>820</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>820</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>412119900</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>82</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>412119901</v>
+      </c>
+      <c r="B82">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>82</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>412219900</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>922.2</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>159</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1081.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>412219901</v>
+      </c>
+      <c r="B84">
+        <v>922.2</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>159</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1081.2</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>451120200</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>83000</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>55000</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>451120201</v>
+      </c>
+      <c r="B86">
+        <v>83000</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>55000</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>138000</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>452149900</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>9274.200000000001</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>9274.200000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>452149901</v>
+      </c>
+      <c r="B88">
+        <v>9000</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>9000</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>452149902</v>
+      </c>
+      <c r="B89">
+        <v>274.2</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>274.2</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>452240000</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1963278.83</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>15846.11</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>634027.14</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>2581459.86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>452240001</v>
+      </c>
+      <c r="B91">
+        <v>1963278.83</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>15846.11</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>634027.14</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>2581459.86</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>463910000</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>6.97</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>6.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>463910110</v>
+      </c>
+      <c r="B93">
+        <v>6.97</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>6.97</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>712310200</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>8658025.390000001</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1032762.25</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>9690787.640000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>712310201</v>
+      </c>
+      <c r="B95">
+        <v>3387836.3</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>150159.08</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>3537995.38</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>712310202</v>
+      </c>
+      <c r="B96">
+        <v>5270189.09</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>882603.17</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>6152792.26</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>712319900</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>1169303.07</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>77500</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>1246803.07</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>712319902</v>
+      </c>
+      <c r="B98">
+        <v>1169303.07</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>77500</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1246803.07</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>721120000</v>
+      </c>
+      <c r="B99">
+        <v>32147810.41</v>
+      </c>
+      <c r="C99">
+        <v>32195603.75</v>
+      </c>
+      <c r="F99">
+        <v>1580496.9</v>
+      </c>
+      <c r="G99">
+        <v>1605942.9</v>
+      </c>
+      <c r="J99">
+        <v>33270717.64</v>
+      </c>
+      <c r="K99">
+        <v>33343956.98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>721121041</v>
+      </c>
+      <c r="B100">
+        <v>7717.55</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>2929.61</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>10647.16</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>721121047</v>
+      </c>
+      <c r="B101">
+        <v>22047.12</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>4684.63</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>26731.75</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>721121080</v>
+      </c>
+      <c r="B102">
+        <v>217.25</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>3.31</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>220.56</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>721121091</v>
+      </c>
+      <c r="B103">
+        <v>17811.42</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>17828.45</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>35639.87</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>721130000</v>
+      </c>
+      <c r="B104">
+        <v>395598.61</v>
+      </c>
+      <c r="C104">
+        <v>403246.18</v>
+      </c>
+      <c r="F104">
+        <v>136423.91</v>
+      </c>
+      <c r="G104">
+        <v>143796.1</v>
+      </c>
+      <c r="J104">
+        <v>532022.52</v>
+      </c>
+      <c r="K104">
+        <v>547042.28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>721138002</v>
+      </c>
+      <c r="B105">
+        <v>2471.76</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>5538.49</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>8010.25</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>721138006</v>
+      </c>
+      <c r="B106">
+        <v>5175.81</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1833.7</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>7009.51</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>791130000</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>388542.25</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>388542.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>791130100</v>
+      </c>
+      <c r="B108">
+        <v>388542.25</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>388542.25</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>791210000</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>210.02</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>2699.56</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>2609.58</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>791210200</v>
+      </c>
+      <c r="F110">
+        <v>491.08</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>491.08</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>791210300</v>
+      </c>
+      <c r="F111">
+        <v>50</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>50</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>791212600</v>
+      </c>
+      <c r="F112">
+        <v>730</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>430</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>300</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>791213000</v>
+      </c>
+      <c r="F113">
+        <v>540.71</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>540.71</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>791214400</v>
+      </c>
+      <c r="B114">
+        <v>210.02</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>210.02</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>791214800</v>
+      </c>
+      <c r="F115">
+        <v>820</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>820</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>791217500</v>
+      </c>
+      <c r="F116">
+        <v>28</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>28</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>791219700</v>
+      </c>
+      <c r="F117">
+        <v>39.77</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>39.77</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>791290000</v>
+      </c>
+      <c r="B118">
+        <v>685</v>
+      </c>
+      <c r="C118">
+        <v>131661.01</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>5240.6</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>1183.01</v>
+      </c>
+      <c r="J118">
+        <v>685</v>
+      </c>
+      <c r="K118">
+        <v>135718.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>791290200</v>
+      </c>
+      <c r="B119">
+        <v>424.83</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>424.83</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>791290300</v>
+      </c>
+      <c r="B120">
+        <v>2758</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>2758</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>791290500</v>
+      </c>
+      <c r="B121">
+        <v>685</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>685</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>791290600</v>
+      </c>
+      <c r="B122">
+        <v>899</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>899</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>791290700</v>
+      </c>
+      <c r="B123">
+        <v>3187.8</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>3187.8</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>791290800</v>
+      </c>
+      <c r="B124">
+        <v>1120.44</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>1120.44</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>791290900</v>
+      </c>
+      <c r="B125">
+        <v>5581.8</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>5581.8</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>791291000</v>
+      </c>
+      <c r="B126">
+        <v>5795.8</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>899</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>4896.8</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>791291100</v>
+      </c>
+      <c r="B127">
+        <v>1350</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1350</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>791291300</v>
+      </c>
+      <c r="B128">
+        <v>699</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>699</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>791291400</v>
+      </c>
+      <c r="B129">
+        <v>699</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>699</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>791291600</v>
+      </c>
+      <c r="B130">
+        <v>3628.32</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>3628.32</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>791291700</v>
+      </c>
+      <c r="B131">
+        <v>2201.72</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>374.07</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>284.01</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>2291.78</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>791291800</v>
+      </c>
+      <c r="B132">
+        <v>780</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>780</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>791291900</v>
+      </c>
+      <c r="B133">
+        <v>415.65</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>415.65</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>791292000</v>
+      </c>
+      <c r="B134">
+        <v>5581.8</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>5581.8</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>791292100</v>
+      </c>
+      <c r="B135">
+        <v>1134</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>1134</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>791292200</v>
+      </c>
+      <c r="B136">
+        <v>1134</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1134</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>791292300</v>
+      </c>
+      <c r="B137">
+        <v>1134</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1134</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>791292400</v>
+      </c>
+      <c r="B138">
+        <v>1134</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1134</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>791292500</v>
+      </c>
+      <c r="B139">
+        <v>1134</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1134</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>791292700</v>
+      </c>
+      <c r="B140">
+        <v>3187.8</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>3187.8</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>791292800</v>
+      </c>
+      <c r="B141">
+        <v>3187.8</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>3187.8</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>791292900</v>
+      </c>
+      <c r="B142">
+        <v>3187.8</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>3187.8</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>791293000</v>
+      </c>
+      <c r="B143">
+        <v>3187.8</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>3187.8</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>791293100</v>
+      </c>
+      <c r="B144">
+        <v>3187.8</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>3187.8</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>791293200</v>
+      </c>
+      <c r="B145">
+        <v>3187.8</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>3187.8</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>791293300</v>
+      </c>
+      <c r="B146">
+        <v>3187.8</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>3187.8</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>791293400</v>
+      </c>
+      <c r="B147">
+        <v>3187.8</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>3187.8</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>791293500</v>
+      </c>
+      <c r="B148">
+        <v>3187.8</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>3187.8</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>791293600</v>
+      </c>
+      <c r="B149">
+        <v>3187.8</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>3187.8</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>791293700</v>
+      </c>
+      <c r="B150">
+        <v>3187.8</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>3187.8</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>791293900</v>
+      </c>
+      <c r="B151">
+        <v>3187.8</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>3187.8</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>791294000</v>
+      </c>
+      <c r="B152">
+        <v>3187.8</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>3187.8</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>791294100</v>
+      </c>
+      <c r="B153">
+        <v>3187.8</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>3187.8</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>791294200</v>
+      </c>
+      <c r="B154">
+        <v>3187.8</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>3187.8</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>791294300</v>
+      </c>
+      <c r="B155">
+        <v>3187.8</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>3187.8</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>791294400</v>
+      </c>
+      <c r="B156">
+        <v>3187.8</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>3187.8</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>791294500</v>
+      </c>
+      <c r="B157">
+        <v>3187.8</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>3187.8</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>791294600</v>
+      </c>
+      <c r="B158">
+        <v>3187.8</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>3187.8</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>791294700</v>
+      </c>
+      <c r="B159">
+        <v>3187.8</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>3187.8</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>791294800</v>
+      </c>
+      <c r="B160">
+        <v>3187.8</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>3187.8</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>791294900</v>
+      </c>
+      <c r="B161">
+        <v>3187.8</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>3187.8</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>791295000</v>
+      </c>
+      <c r="B162">
+        <v>3187.8</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>3187.8</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>791295100</v>
+      </c>
+      <c r="B163">
+        <v>3187.8</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>3187.8</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>791295200</v>
+      </c>
+      <c r="B164">
+        <v>3187.8</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>3187.8</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>791295400</v>
+      </c>
+      <c r="F165">
+        <v>3187.8</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>3187.8</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>791295500</v>
+      </c>
+      <c r="B166">
+        <v>3187.8</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>3187.8</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>791295600</v>
+      </c>
+      <c r="B167">
+        <v>3187.8</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>3187.8</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>791295700</v>
+      </c>
+      <c r="B168">
+        <v>3187.8</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>3187.8</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>791295800</v>
+      </c>
+      <c r="B169">
+        <v>239.45</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>239.45</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>791295900</v>
+      </c>
+      <c r="F170">
+        <v>1678.73</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1678.73</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>812310201</v>
+      </c>
+      <c r="B171">
+        <v>3036598.86</v>
+      </c>
+      <c r="C171">
+        <v>8202355.06</v>
+      </c>
+      <c r="F171">
+        <v>372860.1</v>
+      </c>
+      <c r="G171">
+        <v>382650.96</v>
+      </c>
+      <c r="H171">
+        <v>150159.08</v>
+      </c>
+      <c r="I171">
+        <v>1032762.25</v>
+      </c>
+      <c r="J171">
+        <v>2813897.84</v>
+      </c>
+      <c r="K171">
+        <v>8852466.35</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>812310202</v>
+      </c>
+      <c r="B172">
+        <v>351237.44</v>
+      </c>
+      <c r="C172">
+        <v>455670.33</v>
+      </c>
+      <c r="H172">
+        <v>372860.1</v>
+      </c>
+      <c r="I172">
+        <v>382650.96</v>
+      </c>
+      <c r="J172">
+        <v>724097.54</v>
+      </c>
+      <c r="K172">
+        <v>838321.29</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>812310203</v>
+      </c>
+      <c r="B173">
+        <v>5270189.09</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>9790.860000000001</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>892394.03</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>6152792.26</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>812319901</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>1159675.29</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>5237.36</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>77500</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1231937.93</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>812319903</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>9627.780000000001</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>5237.36</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>14865.14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>812319910</v>
+      </c>
+      <c r="B176">
+        <v>1169303.07</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>5237.36</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>82737.36</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1246803.07</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>821110100</v>
+      </c>
+      <c r="B177">
+        <v>27051013.18</v>
+      </c>
+      <c r="C177">
+        <v>26944851.21</v>
+      </c>
+      <c r="F177">
+        <v>3233787.72</v>
+      </c>
+      <c r="G177">
+        <v>3279799.73</v>
+      </c>
+      <c r="H177">
+        <v>3118370.56</v>
+      </c>
+      <c r="I177">
+        <v>3143816.56</v>
+      </c>
+      <c r="J177">
+        <v>26935596.02</v>
+      </c>
+      <c r="K177">
+        <v>26808868.04</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>821110110</v>
+      </c>
+      <c r="B178">
+        <v>106161.97</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>46012.01</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>25446</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>126727.98</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>821120100</v>
+      </c>
+      <c r="B179">
+        <v>9814001.67</v>
+      </c>
+      <c r="C179">
+        <v>9950799.43</v>
+      </c>
+      <c r="F179">
+        <v>2627205.57</v>
+      </c>
+      <c r="G179">
+        <v>2652064.48</v>
+      </c>
+      <c r="H179">
+        <v>2689032.29</v>
+      </c>
+      <c r="I179">
+        <v>2735044.3</v>
+      </c>
+      <c r="J179">
+        <v>9875828.390000001</v>
+      </c>
+      <c r="K179">
+        <v>10033779.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>821120110</v>
+      </c>
+      <c r="B180">
+        <v>136797.76</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>24858.91</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>46012.01</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>157950.86</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>821130100</v>
+      </c>
+      <c r="B181">
+        <v>512709.73</v>
+      </c>
+      <c r="C181">
+        <v>514751.28</v>
+      </c>
+      <c r="F181">
+        <v>2667196.08</v>
+      </c>
+      <c r="G181">
+        <v>2691965.34</v>
+      </c>
+      <c r="H181">
+        <v>2583726.92</v>
+      </c>
+      <c r="I181">
+        <v>2608585.83</v>
+      </c>
+      <c r="J181">
+        <v>429240.57</v>
+      </c>
+      <c r="K181">
+        <v>431371.77</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>821130110</v>
+      </c>
+      <c r="B182">
+        <v>2041.55</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>24769.26</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>24858.91</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>2131.2</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>821130200</v>
+      </c>
+      <c r="B183">
+        <v>98986.09</v>
+      </c>
+      <c r="C183">
+        <v>100718.91</v>
+      </c>
+      <c r="F183">
+        <v>137422.08</v>
+      </c>
+      <c r="G183">
+        <v>144794.27</v>
+      </c>
+      <c r="H183">
+        <v>136423.91</v>
+      </c>
+      <c r="I183">
+        <v>143796.1</v>
+      </c>
+      <c r="J183">
+        <v>97987.92</v>
+      </c>
+      <c r="K183">
+        <v>99720.74000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>821130280</v>
+      </c>
+      <c r="B184">
+        <v>1732.82</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>7372.19</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>7372.19</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1732.82</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>821140100</v>
+      </c>
+      <c r="B185">
+        <v>21420.31</v>
+      </c>
+      <c r="C185">
+        <v>5354992.15</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>1068.33</v>
+      </c>
+      <c r="H185">
+        <v>18548.59</v>
+      </c>
+      <c r="I185">
+        <v>2746888.27</v>
+      </c>
+      <c r="J185">
+        <v>39968.9</v>
+      </c>
+      <c r="K185">
+        <v>8100812.09</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>821140200</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>302527.27</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>144794.27</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>447321.54</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>821141041</v>
+      </c>
+      <c r="B187">
+        <v>1854.07</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>5867.55</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>7721.62</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>821141047</v>
+      </c>
+      <c r="B188">
+        <v>4261.86</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>5495.08</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>9756.940000000001</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>821141091</v>
+      </c>
+      <c r="B189">
+        <v>9000.07</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>13406.63</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>22406.7</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>821148002</v>
+      </c>
+      <c r="B190">
+        <v>2468.93</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>5538.49</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>8007.42</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>821148006</v>
+      </c>
+      <c r="B191">
+        <v>3445.82</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>1833.7</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>5279.52</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>821149900</v>
+      </c>
+      <c r="B192">
+        <v>5615068.36</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1068.33</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>2840992.5</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>8454992.529999999</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>891130100</v>
+      </c>
+      <c r="B193">
+        <v>388542.25</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>388542.25</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>891190000</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>388542.25</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>388542.25</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>891290000</v>
+      </c>
+      <c r="B195">
+        <v>685</v>
+      </c>
+      <c r="C195">
+        <v>131661.01</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>1183.01</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>5240.6</v>
+      </c>
+      <c r="J195">
+        <v>685</v>
+      </c>
+      <c r="K195">
+        <v>135718.6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>891290200</v>
+      </c>
+      <c r="B196">
+        <v>424.83</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>424.83</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>891290300</v>
+      </c>
+      <c r="B197">
+        <v>2758</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>2758</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>891290500</v>
+      </c>
+      <c r="B198">
+        <v>685</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>685</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>891290600</v>
+      </c>
+      <c r="B199">
+        <v>899</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>899</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>891290700</v>
+      </c>
+      <c r="B200">
+        <v>3187.8</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>3187.8</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>891290800</v>
+      </c>
+      <c r="B201">
+        <v>1120.44</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1120.44</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>891290900</v>
+      </c>
+      <c r="B202">
+        <v>5581.8</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>5581.8</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>891291000</v>
+      </c>
+      <c r="B203">
+        <v>5795.8</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>899</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>4896.8</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>891291100</v>
+      </c>
+      <c r="B204">
+        <v>1350</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1350</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>891291300</v>
+      </c>
+      <c r="B205">
+        <v>699</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>699</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>891291400</v>
+      </c>
+      <c r="B206">
+        <v>699</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>699</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>891291600</v>
+      </c>
+      <c r="B207">
+        <v>3628.32</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>3628.32</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>891291700</v>
+      </c>
+      <c r="B208">
+        <v>2201.72</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>284.01</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>374.07</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>2291.78</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>891291800</v>
+      </c>
+      <c r="B209">
+        <v>780</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>780</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>891291900</v>
+      </c>
+      <c r="B210">
+        <v>415.65</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>415.65</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>891292000</v>
+      </c>
+      <c r="B211">
+        <v>5581.8</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>5581.8</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>891292100</v>
+      </c>
+      <c r="B212">
+        <v>1134</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>1134</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>891292200</v>
+      </c>
+      <c r="B213">
+        <v>1134</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1134</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
+      <c r="A214">
+        <v>891292300</v>
+      </c>
+      <c r="B214">
+        <v>1134</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1134</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
+      <c r="A215">
+        <v>891292400</v>
+      </c>
+      <c r="B215">
+        <v>1134</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1134</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
+      <c r="A216">
+        <v>891292500</v>
+      </c>
+      <c r="B216">
+        <v>1134</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1134</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217">
+        <v>891292700</v>
+      </c>
+      <c r="B217">
+        <v>3187.8</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>3187.8</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
+      <c r="A218">
+        <v>891292800</v>
+      </c>
+      <c r="B218">
+        <v>3187.8</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>3187.8</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
+      <c r="A219">
+        <v>891292900</v>
+      </c>
+      <c r="B219">
+        <v>3187.8</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>3187.8</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
+      <c r="A220">
+        <v>891293000</v>
+      </c>
+      <c r="B220">
+        <v>3187.8</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>3187.8</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
+      <c r="A221">
+        <v>891293100</v>
+      </c>
+      <c r="B221">
+        <v>3187.8</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>3187.8</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
+      <c r="A222">
+        <v>891293200</v>
+      </c>
+      <c r="B222">
+        <v>3187.8</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>3187.8</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
+      <c r="A223">
+        <v>891293300</v>
+      </c>
+      <c r="B223">
+        <v>3187.8</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>3187.8</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
+      <c r="A224">
+        <v>891293400</v>
+      </c>
+      <c r="B224">
+        <v>3187.8</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>3187.8</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
+      <c r="A225">
+        <v>891293500</v>
+      </c>
+      <c r="B225">
+        <v>3187.8</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>3187.8</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
+      <c r="A226">
+        <v>891293600</v>
+      </c>
+      <c r="B226">
+        <v>3187.8</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>3187.8</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
+      <c r="A227">
+        <v>891293700</v>
+      </c>
+      <c r="B227">
+        <v>3187.8</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>3187.8</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
+      <c r="A228">
+        <v>891293900</v>
+      </c>
+      <c r="B228">
+        <v>3187.8</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>3187.8</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
+      <c r="A229">
+        <v>891294000</v>
+      </c>
+      <c r="B229">
+        <v>3187.8</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>3187.8</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
+      <c r="A230">
+        <v>891294100</v>
+      </c>
+      <c r="B230">
+        <v>3187.8</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>3187.8</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
+      <c r="A231">
+        <v>891294200</v>
+      </c>
+      <c r="B231">
+        <v>3187.8</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>3187.8</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
+      <c r="A232">
+        <v>891294300</v>
+      </c>
+      <c r="B232">
+        <v>3187.8</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>3187.8</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
+      <c r="A233">
+        <v>891294400</v>
+      </c>
+      <c r="B233">
+        <v>3187.8</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>3187.8</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
+      <c r="A234">
+        <v>891294500</v>
+      </c>
+      <c r="B234">
+        <v>3187.8</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>3187.8</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
+      <c r="A235">
+        <v>891294600</v>
+      </c>
+      <c r="B235">
+        <v>3187.8</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>3187.8</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
+      <c r="A236">
+        <v>891294700</v>
+      </c>
+      <c r="B236">
+        <v>3187.8</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>3187.8</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
+      <c r="A237">
+        <v>891294800</v>
+      </c>
+      <c r="B237">
+        <v>3187.8</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>3187.8</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
+      <c r="A238">
+        <v>891294900</v>
+      </c>
+      <c r="B238">
+        <v>3187.8</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>3187.8</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
+      <c r="A239">
+        <v>891295000</v>
+      </c>
+      <c r="B239">
+        <v>3187.8</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>3187.8</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
+      <c r="A240">
+        <v>891295100</v>
+      </c>
+      <c r="B240">
+        <v>3187.8</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>3187.8</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
+      <c r="A241">
+        <v>891295200</v>
+      </c>
+      <c r="B241">
+        <v>3187.8</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>3187.8</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
+      <c r="A242">
+        <v>891295400</v>
+      </c>
+      <c r="H242">
+        <v>3187.8</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>3187.8</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
+      <c r="A243">
+        <v>891295500</v>
+      </c>
+      <c r="B243">
+        <v>3187.8</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>3187.8</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
+      <c r="A244">
+        <v>891295600</v>
+      </c>
+      <c r="B244">
+        <v>3187.8</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>3187.8</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
+      <c r="A245">
+        <v>891295700</v>
+      </c>
+      <c r="B245">
+        <v>3187.8</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>3187.8</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
+      <c r="A246">
+        <v>891295800</v>
+      </c>
+      <c r="B246">
+        <v>239.45</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>239.45</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
+      <c r="A247">
+        <v>891295900</v>
+      </c>
+      <c r="H247">
+        <v>1678.73</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>1678.73</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/teste-valores-balver-msc.xlsx
+++ b/output/teste-valores-balver-msc.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dados" sheetId="1" r:id="rId1"/>
+    <sheet name="dados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>conta_contabil</t>
-  </si>
-  <si>
-    <t>saldo_inicial_valor_pad</t>
-  </si>
-  <si>
-    <t>saldo_inicial_valor_msc</t>
-  </si>
-  <si>
-    <t>saldo_inicial_natureza_pad</t>
-  </si>
-  <si>
-    <t>saldo_inicial_natureza_msc</t>
-  </si>
-  <si>
-    <t>movimento_debito_pad</t>
-  </si>
-  <si>
-    <t>movimento_debito_msc</t>
-  </si>
-  <si>
-    <t>movimento_credito_pad</t>
-  </si>
-  <si>
-    <t>movimento_credito_msc</t>
-  </si>
-  <si>
-    <t>saldo_final_valor_pad</t>
-  </si>
-  <si>
-    <t>saldo_final_valor_msc</t>
-  </si>
-  <si>
-    <t>saldo_final_natureza_pad</t>
-  </si>
-  <si>
-    <t>saldo_final_natureza_msc</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,55 +420,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>conta_contabil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_inicial_valor_pad</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_inicial_valor_msc</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_inicial_natureza_pad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_inicial_natureza_msc</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>movimento_debito_pad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>movimento_debito_msc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>movimento_credito_pad</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>movimento_credito_msc</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_final_valor_pad</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_final_valor_msc</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_final_natureza_pad</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>saldo_final_natureza_msc</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>